--- a/TEST_timetable.xlsx
+++ b/TEST_timetable.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baldyman/Documents/Software/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -47,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,29 +68,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -85,33 +85,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="チェック セル" xfId="1" builtinId="23"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -127,7 +109,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -172,9 +154,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -207,9 +189,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -413,18 +395,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -482,9 +464,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -511,12 +493,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -540,12 +522,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>30</v>
+        <v>330</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -569,9 +551,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>0</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>450</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -598,7 +580,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TEST_timetable.xlsx
+++ b/TEST_timetable.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baldyman/Documents/Software/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27315" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -93,7 +85,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -395,18 +387,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -464,177 +456,641 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60</v>
       </c>
       <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>180</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>210</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>300</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>330</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>420</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>450</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>540</v>
+      </c>
+      <c r="B11">
         <v>50</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>180</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>330</v>
-      </c>
-      <c r="B5">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>570</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>660</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>690</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>780</v>
+      </c>
+      <c r="B15">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>810</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>900</v>
+      </c>
+      <c r="B17">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>930</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1020</v>
+      </c>
+      <c r="B19">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1050</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1140</v>
+      </c>
+      <c r="B21">
         <v>100</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>450</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>600</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1170</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1320</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>0</v>
       </c>
     </row>
